--- a/Code/Results/Cases/Case_1_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60538790066775</v>
+        <v>13.21241398033335</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.019121727445422</v>
+        <v>4.490498767714787</v>
       </c>
       <c r="E2">
-        <v>10.58365204081785</v>
+        <v>17.20030952492571</v>
       </c>
       <c r="F2">
-        <v>15.35041810611028</v>
+        <v>21.12345547573798</v>
       </c>
       <c r="G2">
-        <v>17.92589025153909</v>
+        <v>23.28252022839287</v>
       </c>
       <c r="H2">
-        <v>7.746217144159327</v>
+        <v>12.96501463178743</v>
       </c>
       <c r="I2">
-        <v>15.18224519097633</v>
+        <v>24.77110034786419</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.73857839535223</v>
+        <v>11.12605332938826</v>
       </c>
       <c r="L2">
-        <v>6.931839974955975</v>
+        <v>8.54489681819906</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.1458275498713</v>
+        <v>18.99301785127283</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.88555865471254</v>
+        <v>13.03818763570395</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.798155138648773</v>
+        <v>4.402932019123607</v>
       </c>
       <c r="E3">
-        <v>10.75987039350879</v>
+        <v>17.2787578360615</v>
       </c>
       <c r="F3">
-        <v>15.07625430907464</v>
+        <v>21.15935016798435</v>
       </c>
       <c r="G3">
-        <v>17.61352149618308</v>
+        <v>23.34140368521217</v>
       </c>
       <c r="H3">
-        <v>7.810357955545134</v>
+        <v>13.0106743175468</v>
       </c>
       <c r="I3">
-        <v>15.54295703714284</v>
+        <v>24.90736185898097</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.07377808829296</v>
+        <v>10.82624240069859</v>
       </c>
       <c r="L3">
-        <v>6.57452929393047</v>
+        <v>8.492276400498444</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.16695177948317</v>
+        <v>19.06587109879511</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.42368704819225</v>
+        <v>12.93194405226256</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.656615943284226</v>
+        <v>4.347602460565738</v>
       </c>
       <c r="E4">
-        <v>10.8737011677654</v>
+        <v>17.32980918305589</v>
       </c>
       <c r="F4">
-        <v>14.92112278195108</v>
+        <v>21.18750770153787</v>
       </c>
       <c r="G4">
-        <v>17.44409012052336</v>
+        <v>23.38632357870721</v>
       </c>
       <c r="H4">
-        <v>7.854786750509031</v>
+        <v>13.04082007736894</v>
       </c>
       <c r="I4">
-        <v>15.77300246005892</v>
+        <v>24.99559138265353</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.64845930641939</v>
+        <v>10.63651236579948</v>
       </c>
       <c r="L4">
-        <v>6.375540915214671</v>
+        <v>8.461144381087818</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.19172098037971</v>
+        <v>19.11495887680282</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.23062035875916</v>
+        <v>12.88888071765423</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.597506801459449</v>
+        <v>4.324678765969831</v>
       </c>
       <c r="E5">
-        <v>10.92148822426839</v>
+        <v>17.35133944057484</v>
       </c>
       <c r="F5">
-        <v>14.86123571391461</v>
+        <v>21.20051723370785</v>
       </c>
       <c r="G5">
-        <v>17.38060504075417</v>
+        <v>23.40682269565091</v>
       </c>
       <c r="H5">
-        <v>7.874118106745263</v>
+        <v>13.05363550102815</v>
       </c>
       <c r="I5">
-        <v>15.8688883517721</v>
+        <v>25.03269560573958</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.4709759919715</v>
+        <v>10.55785340355105</v>
       </c>
       <c r="L5">
-        <v>6.293198923617761</v>
+        <v>8.448764038926722</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.20466538886681</v>
+        <v>19.13605560710621</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.19827396449076</v>
+        <v>12.88174547321763</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.587606786184476</v>
+        <v>4.320850069756565</v>
       </c>
       <c r="E6">
-        <v>10.92950735486565</v>
+        <v>17.3549584350551</v>
       </c>
       <c r="F6">
-        <v>14.85149265282653</v>
+        <v>21.20277006281009</v>
       </c>
       <c r="G6">
-        <v>17.37039672650591</v>
+        <v>23.41035874405378</v>
       </c>
       <c r="H6">
-        <v>7.877400917674741</v>
+        <v>13.05579555252099</v>
       </c>
       <c r="I6">
-        <v>15.88493908033888</v>
+        <v>25.03892625517433</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.44125833071029</v>
+        <v>10.54471342829479</v>
       </c>
       <c r="L6">
-        <v>6.279453950783076</v>
+        <v>8.446727076336575</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.20698356507599</v>
+        <v>19.13962465634951</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.42110269563957</v>
+        <v>12.93136228369578</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.6558245064713</v>
+        <v>4.347294805253753</v>
       </c>
       <c r="E7">
-        <v>10.87433999169683</v>
+        <v>17.33009660468355</v>
       </c>
       <c r="F7">
-        <v>14.92030163759223</v>
+        <v>21.18767694194354</v>
       </c>
       <c r="G7">
-        <v>17.44321153431389</v>
+        <v>23.38659116828575</v>
       </c>
       <c r="H7">
-        <v>7.855042549740762</v>
+        <v>13.04099076144015</v>
       </c>
       <c r="I7">
-        <v>15.77428695927049</v>
+        <v>24.99608712400449</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.64608234895001</v>
+        <v>10.63545687294561</v>
       </c>
       <c r="L7">
-        <v>6.37443533796606</v>
+        <v>8.460976162479717</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.19188416465645</v>
+        <v>19.11523897185208</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.36140075195167</v>
+        <v>13.15221743882296</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.944173895743988</v>
+        <v>4.460639913913456</v>
       </c>
       <c r="E8">
-        <v>10.64323293169462</v>
+        <v>17.22676074226898</v>
       </c>
       <c r="F8">
-        <v>15.25315537486785</v>
+        <v>21.13456036988794</v>
       </c>
       <c r="G8">
-        <v>17.81351426924896</v>
+        <v>23.30099824796785</v>
       </c>
       <c r="H8">
-        <v>7.767259350859282</v>
+        <v>12.9803200955735</v>
       </c>
       <c r="I8">
-        <v>15.30483120235347</v>
+        <v>24.81713731100841</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.51298973934916</v>
+        <v>11.02389452619027</v>
       </c>
       <c r="L8">
-        <v>6.792687609039043</v>
+        <v>8.526515241346244</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.1505928126977</v>
+        <v>19.01723235288344</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.04237595034676</v>
+        <v>13.58902803684631</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.461506523144501</v>
+        <v>4.669819965841325</v>
       </c>
       <c r="E9">
-        <v>10.23554433587907</v>
+        <v>17.04694294169067</v>
       </c>
       <c r="F9">
-        <v>16.00961614450913</v>
+        <v>21.07906179571648</v>
       </c>
       <c r="G9">
-        <v>18.71853766816358</v>
+        <v>23.2030993678748</v>
       </c>
       <c r="H9">
-        <v>7.637163844531329</v>
+        <v>12.87808782791969</v>
       </c>
       <c r="I9">
-        <v>14.4530247314033</v>
+        <v>24.50233189607874</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.07190094130993</v>
+        <v>11.73774373284824</v>
       </c>
       <c r="L9">
-        <v>7.744978679737624</v>
+        <v>8.663909466286038</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.16834896190768</v>
+        <v>18.85969675591524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.17305458284148</v>
+        <v>13.90943534841954</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.810561781514552</v>
+        <v>4.814670939055249</v>
       </c>
       <c r="E10">
-        <v>9.96507342396778</v>
+        <v>16.92866391331452</v>
       </c>
       <c r="F10">
-        <v>16.62650946364776</v>
+        <v>21.06807121041151</v>
       </c>
       <c r="G10">
-        <v>19.49262223084913</v>
+        <v>23.17427944351096</v>
       </c>
       <c r="H10">
-        <v>7.570123931019674</v>
+        <v>12.81317976189814</v>
       </c>
       <c r="I10">
-        <v>13.87066832057223</v>
+        <v>24.29291742587488</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.12572617983889</v>
+        <v>12.22930079792976</v>
       </c>
       <c r="L10">
-        <v>8.379152574392041</v>
+        <v>8.769610737863239</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.24838004415542</v>
+        <v>18.76520899280798</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.66414158884973</v>
+        <v>14.05450837723883</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.962364890132905</v>
+        <v>4.878486696113764</v>
       </c>
       <c r="E11">
-        <v>9.848686829398973</v>
+        <v>16.87784259919292</v>
       </c>
       <c r="F11">
-        <v>16.91981603379732</v>
+        <v>21.06954786628186</v>
       </c>
       <c r="G11">
-        <v>19.8680688365832</v>
+        <v>23.17059934328208</v>
       </c>
       <c r="H11">
-        <v>7.54649482923008</v>
+        <v>12.78586578329877</v>
       </c>
       <c r="I11">
-        <v>13.61566210966703</v>
+        <v>24.20236891631494</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.58446127040864</v>
+        <v>12.44510275707395</v>
       </c>
       <c r="L11">
-        <v>8.653516146485702</v>
+        <v>8.818585105468379</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.30071515150092</v>
+        <v>18.72686491540225</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.84672590923711</v>
+        <v>14.10929899853154</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.018828844332526</v>
+        <v>4.902340876604271</v>
       </c>
       <c r="E12">
-        <v>9.805605210579492</v>
+        <v>16.85902583213932</v>
       </c>
       <c r="F12">
-        <v>17.0326496108934</v>
+        <v>21.07103768073378</v>
       </c>
       <c r="G12">
-        <v>20.01353665062463</v>
+        <v>23.17056528895258</v>
       </c>
       <c r="H12">
-        <v>7.538593228343279</v>
+        <v>12.77584090853747</v>
       </c>
       <c r="I12">
-        <v>13.52057770947508</v>
+        <v>24.16875646227642</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.75515343110471</v>
+        <v>12.52564905374923</v>
       </c>
       <c r="L12">
-        <v>8.755390209437408</v>
+        <v>8.837245884843476</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.32293036915461</v>
+        <v>18.7130141084932</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.80755382661772</v>
+        <v>14.09750606242204</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.006713933247237</v>
+        <v>4.897217496849652</v>
       </c>
       <c r="E13">
-        <v>9.814838908910186</v>
+        <v>16.86305933254049</v>
       </c>
       <c r="F13">
-        <v>17.00827133249943</v>
+        <v>21.07067545161456</v>
       </c>
       <c r="G13">
-        <v>19.98206205275324</v>
+        <v>23.17051211934396</v>
       </c>
       <c r="H13">
-        <v>7.540247489334686</v>
+        <v>12.77798578487747</v>
       </c>
       <c r="I13">
-        <v>13.54098895193271</v>
+        <v>24.17596545409918</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.71852684834474</v>
+        <v>12.50835489262538</v>
       </c>
       <c r="L13">
-        <v>8.73353952234142</v>
+        <v>8.833222031476105</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.31803767779258</v>
+        <v>18.71596732793238</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.67923079374814</v>
+        <v>14.05901921443359</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.967030748104763</v>
+        <v>4.880455505541535</v>
       </c>
       <c r="E14">
-        <v>9.845122392514059</v>
+        <v>16.87628595704212</v>
       </c>
       <c r="F14">
-        <v>16.92906388981811</v>
+        <v>21.06965178961019</v>
       </c>
       <c r="G14">
-        <v>19.87997090125156</v>
+        <v>23.17056928042464</v>
       </c>
       <c r="H14">
-        <v>7.545823447505335</v>
+        <v>12.78503465026956</v>
       </c>
       <c r="I14">
-        <v>13.60780941578899</v>
+        <v>24.1995900551753</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.59856500560332</v>
+        <v>12.45175313205709</v>
       </c>
       <c r="L14">
-        <v>8.661937832630402</v>
+        <v>8.820118102996357</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.30249417979021</v>
+        <v>18.72571197589727</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.60018830771434</v>
+        <v>14.03542459459236</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.942590319566667</v>
+        <v>4.870147379116806</v>
       </c>
       <c r="E15">
-        <v>9.863802129875134</v>
+        <v>16.88444337671031</v>
       </c>
       <c r="F15">
-        <v>16.88077511488667</v>
+        <v>21.06914592966765</v>
       </c>
       <c r="G15">
-        <v>19.81786426826934</v>
+        <v>23.17078141948235</v>
       </c>
       <c r="H15">
-        <v>7.549376913485883</v>
+        <v>12.78939374381824</v>
       </c>
       <c r="I15">
-        <v>13.64893360232703</v>
+        <v>24.21414882919177</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.5246902180989</v>
+        <v>12.41692872793298</v>
       </c>
       <c r="L15">
-        <v>8.617816821247994</v>
+        <v>8.812106195351339</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.29328857309242</v>
+        <v>18.73176807558739</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.14048951280961</v>
+        <v>13.89993668581794</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.800499077381197</v>
+        <v>4.810457515152637</v>
       </c>
       <c r="E16">
-        <v>9.972816301082556</v>
+        <v>16.93204517421922</v>
       </c>
       <c r="F16">
-        <v>16.60759135202982</v>
+        <v>21.06810499143472</v>
       </c>
       <c r="G16">
-        <v>19.46855028178443</v>
+        <v>23.17471003807558</v>
       </c>
       <c r="H16">
-        <v>7.571811304962106</v>
+        <v>12.81500933532485</v>
       </c>
       <c r="I16">
-        <v>13.88753750032507</v>
+        <v>24.29892971593084</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.09532650475298</v>
+        <v>12.21503607366964</v>
       </c>
       <c r="L16">
-        <v>8.360938787266797</v>
+        <v>8.766426974840877</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.24528957619969</v>
+        <v>18.76780840454052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.85249185120655</v>
+        <v>13.81661048669787</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.711529146463968</v>
+        <v>4.773298252654123</v>
       </c>
       <c r="E17">
-        <v>10.04142016921</v>
+        <v>16.96201099962094</v>
       </c>
       <c r="F17">
-        <v>16.44320821132365</v>
+        <v>21.06912495774588</v>
       </c>
       <c r="G17">
-        <v>19.26019027962069</v>
+        <v>23.1795383749388</v>
       </c>
       <c r="H17">
-        <v>7.587374051500347</v>
+        <v>12.83129055405513</v>
       </c>
       <c r="I17">
-        <v>14.03648761271558</v>
+        <v>24.35214646458568</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.82659532320745</v>
+        <v>12.08914386682014</v>
       </c>
       <c r="L17">
-        <v>8.199740440649069</v>
+        <v>8.738623249406386</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.22000093221348</v>
+        <v>18.79110770018502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.68465456324047</v>
+        <v>13.76862203073703</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.659699358263692</v>
+        <v>4.751730367566717</v>
       </c>
       <c r="E18">
-        <v>10.0815030723254</v>
+        <v>16.9795275143423</v>
       </c>
       <c r="F18">
-        <v>16.34985643377434</v>
+        <v>21.07032129043094</v>
       </c>
       <c r="G18">
-        <v>19.14254559829954</v>
+        <v>23.18320301284857</v>
       </c>
       <c r="H18">
-        <v>7.596968094069092</v>
+        <v>12.84086337435262</v>
       </c>
       <c r="I18">
-        <v>14.12308861179906</v>
+        <v>24.38319924698665</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.67008624125509</v>
+        <v>12.01600157024621</v>
       </c>
       <c r="L18">
-        <v>8.105693059716208</v>
+        <v>8.722715860870521</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.20694879255791</v>
+        <v>18.80494534632952</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.62745310735495</v>
+        <v>13.75236487833944</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.642038463578216</v>
+        <v>4.74439478656943</v>
       </c>
       <c r="E19">
-        <v>10.09518059528324</v>
+        <v>16.98550659183445</v>
       </c>
       <c r="F19">
-        <v>16.31845647813578</v>
+        <v>21.07083106638559</v>
       </c>
       <c r="G19">
-        <v>19.10309231811743</v>
+        <v>23.18459609577817</v>
       </c>
       <c r="H19">
-        <v>7.60032511807682</v>
+        <v>12.84414033835218</v>
       </c>
       <c r="I19">
-        <v>14.15256824254451</v>
+        <v>24.39378948227862</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.61676316576619</v>
+        <v>11.99111266229765</v>
       </c>
       <c r="L19">
-        <v>8.073621501798721</v>
+        <v>8.717344805566968</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.20278268987929</v>
+        <v>18.80970543768412</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.88337650193056</v>
+        <v>13.8254874079589</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.721068236962982</v>
+        <v>4.777274181705728</v>
       </c>
       <c r="E20">
-        <v>10.03405237330325</v>
+        <v>16.95879201485484</v>
       </c>
       <c r="F20">
-        <v>16.46058360593592</v>
+        <v>21.06895328353783</v>
       </c>
       <c r="G20">
-        <v>19.28214341161742</v>
+        <v>23.17893250671318</v>
       </c>
       <c r="H20">
-        <v>7.585650429633342</v>
+        <v>12.82953583213296</v>
       </c>
       <c r="I20">
-        <v>14.02053512216044</v>
+        <v>24.34643551992101</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.85540361434965</v>
+        <v>12.10262149031282</v>
       </c>
       <c r="L20">
-        <v>8.217037906678524</v>
+        <v>8.741574341892273</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.22253761996879</v>
+        <v>18.78858225727988</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.71701430999073</v>
+        <v>14.07032805051274</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.978714471757671</v>
+        <v>4.885387458352667</v>
       </c>
       <c r="E21">
-        <v>9.836200191000778</v>
+        <v>16.87238936441236</v>
       </c>
       <c r="F21">
-        <v>16.95228161115971</v>
+        <v>21.06992721613431</v>
       </c>
       <c r="G21">
-        <v>19.90986864566628</v>
+        <v>23.17051557385649</v>
       </c>
       <c r="H21">
-        <v>7.544156780039539</v>
+        <v>12.78295558722417</v>
       </c>
       <c r="I21">
-        <v>13.58814192857895</v>
+        <v>24.19263259613923</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.63388303392873</v>
+        <v>12.46841065708303</v>
       </c>
       <c r="L21">
-        <v>8.683023752559736</v>
+        <v>8.82396401921025</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.30699380504988</v>
+        <v>18.72283155591743</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.2421385283913</v>
+        <v>14.22947723190309</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.141147349233417</v>
+        <v>4.954225045220657</v>
       </c>
       <c r="E22">
-        <v>9.712690816014003</v>
+        <v>16.81841544845947</v>
       </c>
       <c r="F22">
-        <v>17.28389376620064</v>
+        <v>21.07598729824263</v>
       </c>
       <c r="G22">
-        <v>20.3392931121736</v>
+        <v>23.17293945924281</v>
       </c>
       <c r="H22">
-        <v>7.523165352579275</v>
+        <v>12.75436826276427</v>
       </c>
       <c r="I22">
-        <v>13.31421501347561</v>
+        <v>24.09605472573297</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.12504144275943</v>
+        <v>12.70061679701032</v>
       </c>
       <c r="L22">
-        <v>8.975796561753969</v>
+        <v>8.878476171965717</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.37620803784404</v>
+        <v>18.68376160129391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.96368096984268</v>
+        <v>14.14463103126432</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.055003099557036</v>
+        <v>4.91765568289436</v>
       </c>
       <c r="E23">
-        <v>9.778066815200546</v>
+        <v>16.84699435270325</v>
       </c>
       <c r="F23">
-        <v>17.10598682783102</v>
+        <v>21.07225709709345</v>
       </c>
       <c r="G23">
-        <v>20.10836837231311</v>
+        <v>23.17091991660043</v>
       </c>
       <c r="H23">
-        <v>7.533788262203886</v>
+        <v>12.7694560362568</v>
       </c>
       <c r="I23">
-        <v>13.4596001969639</v>
+        <v>24.14724009070945</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.86452702955684</v>
+        <v>12.57732683105911</v>
       </c>
       <c r="L23">
-        <v>8.820611640416605</v>
+        <v>8.849325354238873</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.33795077716976</v>
+        <v>18.70425624284621</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.86942059919369</v>
+        <v>13.82147440712022</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.716757730264789</v>
+        <v>4.775477300277095</v>
       </c>
       <c r="E24">
-        <v>10.03738135789691</v>
+        <v>16.9602464183342</v>
       </c>
       <c r="F24">
-        <v>16.45272459026678</v>
+        <v>21.06902899750129</v>
       </c>
       <c r="G24">
-        <v>19.27221171743303</v>
+        <v>23.17920365160408</v>
       </c>
       <c r="H24">
-        <v>7.586427668817684</v>
+        <v>12.83032847990064</v>
       </c>
       <c r="I24">
-        <v>14.02774423335155</v>
+        <v>24.34901601196747</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.84238564870948</v>
+        <v>12.0965306362919</v>
       </c>
       <c r="L24">
-        <v>8.209221997407857</v>
+        <v>8.740239911096936</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.22138616102924</v>
+        <v>18.78972263160792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.6056749584086</v>
+        <v>13.47075109863154</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.3269018193646</v>
+        <v>4.614724217584811</v>
       </c>
       <c r="E25">
-        <v>10.34083809724495</v>
+        <v>17.09315344093987</v>
       </c>
       <c r="F25">
-        <v>15.79405144946239</v>
+        <v>21.08885068997491</v>
       </c>
       <c r="G25">
-        <v>18.45445289977335</v>
+        <v>23.22204193512896</v>
       </c>
       <c r="H25">
-        <v>7.667565094072105</v>
+        <v>12.90395246255083</v>
       </c>
       <c r="I25">
-        <v>14.67596340301541</v>
+        <v>24.5836437745693</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.66591728817808</v>
+        <v>11.55016042413747</v>
       </c>
       <c r="L25">
-        <v>7.498868558882303</v>
+        <v>8.625856735479392</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.15226243528982</v>
+        <v>18.89859085035387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_189/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.21241398033335</v>
+        <v>12.60538790066778</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.490498767714787</v>
+        <v>5.019121727445496</v>
       </c>
       <c r="E2">
-        <v>17.20030952492571</v>
+        <v>10.58365204081798</v>
       </c>
       <c r="F2">
-        <v>21.12345547573798</v>
+        <v>15.35041810611028</v>
       </c>
       <c r="G2">
-        <v>23.28252022839287</v>
+        <v>17.92589025153919</v>
       </c>
       <c r="H2">
-        <v>12.96501463178743</v>
+        <v>7.746217144159327</v>
       </c>
       <c r="I2">
-        <v>24.77110034786419</v>
+        <v>15.1822451909764</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.12605332938826</v>
+        <v>14.73857839535219</v>
       </c>
       <c r="L2">
-        <v>8.54489681819906</v>
+        <v>6.931839974955897</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.99301785127283</v>
+        <v>12.14582754987136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.03818763570395</v>
+        <v>11.88555865471258</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.402932019123607</v>
+        <v>4.798155138648863</v>
       </c>
       <c r="E3">
-        <v>17.2787578360615</v>
+        <v>10.7598703935088</v>
       </c>
       <c r="F3">
-        <v>21.15935016798435</v>
+        <v>15.07625430907461</v>
       </c>
       <c r="G3">
-        <v>23.34140368521217</v>
+        <v>17.6135214961829</v>
       </c>
       <c r="H3">
-        <v>13.0106743175468</v>
+        <v>7.810357955545317</v>
       </c>
       <c r="I3">
-        <v>24.90736185898097</v>
+        <v>15.54295703714292</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.82624240069859</v>
+        <v>14.07377808829293</v>
       </c>
       <c r="L3">
-        <v>8.492276400498444</v>
+        <v>6.574529293930433</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.06587109879511</v>
+        <v>12.16695177948317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.93194405226256</v>
+        <v>11.42368704819232</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.347602460565738</v>
+        <v>4.656615943284208</v>
       </c>
       <c r="E4">
-        <v>17.32980918305589</v>
+        <v>10.87370116776547</v>
       </c>
       <c r="F4">
-        <v>21.18750770153787</v>
+        <v>14.92112278195109</v>
       </c>
       <c r="G4">
-        <v>23.38632357870721</v>
+        <v>17.44409012052347</v>
       </c>
       <c r="H4">
-        <v>13.04082007736894</v>
+        <v>7.854786750508917</v>
       </c>
       <c r="I4">
-        <v>24.99559138265353</v>
+        <v>15.77300246005895</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.63651236579948</v>
+        <v>13.64845930641938</v>
       </c>
       <c r="L4">
-        <v>8.461144381087818</v>
+        <v>6.375540915214671</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.11495887680282</v>
+        <v>12.19172098037972</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.88888071765423</v>
+        <v>11.23062035875914</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.324678765969831</v>
+        <v>4.597506801459409</v>
       </c>
       <c r="E5">
-        <v>17.35133944057484</v>
+        <v>10.92148822426813</v>
       </c>
       <c r="F5">
-        <v>21.20051723370785</v>
+        <v>14.86123571391457</v>
       </c>
       <c r="G5">
-        <v>23.40682269565091</v>
+        <v>17.38060504075418</v>
       </c>
       <c r="H5">
-        <v>13.05363550102815</v>
+        <v>7.874118106745202</v>
       </c>
       <c r="I5">
-        <v>25.03269560573958</v>
+        <v>15.86888835177197</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.55785340355105</v>
+        <v>13.47097599197145</v>
       </c>
       <c r="L5">
-        <v>8.448764038926722</v>
+        <v>6.293198923617695</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.13605560710621</v>
+        <v>12.20466538886675</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.88174547321763</v>
+        <v>11.1982739644908</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.320850069756565</v>
+        <v>4.587606786184412</v>
       </c>
       <c r="E6">
-        <v>17.3549584350551</v>
+        <v>10.92950735486565</v>
       </c>
       <c r="F6">
-        <v>21.20277006281009</v>
+        <v>14.85149265282636</v>
       </c>
       <c r="G6">
-        <v>23.41035874405378</v>
+        <v>17.37039672650564</v>
       </c>
       <c r="H6">
-        <v>13.05579555252099</v>
+        <v>7.877400917674573</v>
       </c>
       <c r="I6">
-        <v>25.03892625517433</v>
+        <v>15.88493908033875</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.54471342829479</v>
+        <v>13.44125833071031</v>
       </c>
       <c r="L6">
-        <v>8.446727076336575</v>
+        <v>6.279453950783011</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.13962465634951</v>
+        <v>12.20698356507575</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.93136228369578</v>
+        <v>11.42110269563958</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.347294805253753</v>
+        <v>4.655824506471313</v>
       </c>
       <c r="E7">
-        <v>17.33009660468355</v>
+        <v>10.87433999169683</v>
       </c>
       <c r="F7">
-        <v>21.18767694194354</v>
+        <v>14.9203016375922</v>
       </c>
       <c r="G7">
-        <v>23.38659116828575</v>
+        <v>17.44321153431385</v>
       </c>
       <c r="H7">
-        <v>13.04099076144015</v>
+        <v>7.855042549740696</v>
       </c>
       <c r="I7">
-        <v>24.99608712400449</v>
+        <v>15.77428695927055</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.63545687294561</v>
+        <v>13.64608234895002</v>
       </c>
       <c r="L7">
-        <v>8.460976162479717</v>
+        <v>6.374435337966046</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.11523897185208</v>
+        <v>12.19188416465643</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.15221743882296</v>
+        <v>12.36140075195169</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.460639913913456</v>
+        <v>4.944173895744031</v>
       </c>
       <c r="E8">
-        <v>17.22676074226898</v>
+        <v>10.64323293169462</v>
       </c>
       <c r="F8">
-        <v>21.13456036988794</v>
+        <v>15.25315537486779</v>
       </c>
       <c r="G8">
-        <v>23.30099824796785</v>
+        <v>17.81351426924898</v>
       </c>
       <c r="H8">
-        <v>12.9803200955735</v>
+        <v>7.767259350859181</v>
       </c>
       <c r="I8">
-        <v>24.81713731100841</v>
+        <v>15.30483120235344</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.02389452619027</v>
+        <v>14.51298973934919</v>
       </c>
       <c r="L8">
-        <v>8.526515241346244</v>
+        <v>6.792687609039022</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.01723235288344</v>
+        <v>12.15059281269766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.58902803684631</v>
+        <v>14.04237595034678</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.669819965841325</v>
+        <v>5.46150652314437</v>
       </c>
       <c r="E9">
-        <v>17.04694294169067</v>
+        <v>10.23554433587914</v>
       </c>
       <c r="F9">
-        <v>21.07906179571648</v>
+        <v>16.00961614450911</v>
       </c>
       <c r="G9">
-        <v>23.2030993678748</v>
+        <v>18.71853766816344</v>
       </c>
       <c r="H9">
-        <v>12.87808782791969</v>
+        <v>7.637163844531325</v>
       </c>
       <c r="I9">
-        <v>24.50233189607874</v>
+        <v>14.45302473140324</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.73774373284824</v>
+        <v>16.07190094130998</v>
       </c>
       <c r="L9">
-        <v>8.663909466286038</v>
+        <v>7.74497867973761</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.85969675591524</v>
+        <v>12.16834896190757</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.90943534841954</v>
+        <v>15.17305458284147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.814670939055249</v>
+        <v>5.810561781514352</v>
       </c>
       <c r="E10">
-        <v>16.92866391331452</v>
+        <v>9.965073423967837</v>
       </c>
       <c r="F10">
-        <v>21.06807121041151</v>
+        <v>16.62650946364773</v>
       </c>
       <c r="G10">
-        <v>23.17427944351096</v>
+        <v>19.49262223084906</v>
       </c>
       <c r="H10">
-        <v>12.81317976189814</v>
+        <v>7.570123931019562</v>
       </c>
       <c r="I10">
-        <v>24.29291742587488</v>
+        <v>13.87066832057213</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.22930079792976</v>
+        <v>17.12572617983894</v>
       </c>
       <c r="L10">
-        <v>8.769610737863239</v>
+        <v>8.379152574392034</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.76520899280798</v>
+        <v>12.2483800441553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.05450837723883</v>
+        <v>15.66414158884974</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.878486696113764</v>
+        <v>5.962364890133095</v>
       </c>
       <c r="E11">
-        <v>16.87784259919292</v>
+        <v>9.848686829398916</v>
       </c>
       <c r="F11">
-        <v>21.06954786628186</v>
+        <v>16.91981603379719</v>
       </c>
       <c r="G11">
-        <v>23.17059934328208</v>
+        <v>19.86806883658301</v>
       </c>
       <c r="H11">
-        <v>12.78586578329877</v>
+        <v>7.546494829230029</v>
       </c>
       <c r="I11">
-        <v>24.20236891631494</v>
+        <v>13.61566210966693</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.44510275707395</v>
+        <v>17.58446127040868</v>
       </c>
       <c r="L11">
-        <v>8.818585105468379</v>
+        <v>8.65351614648578</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.72686491540225</v>
+        <v>12.30071515150081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.10929899853154</v>
+        <v>15.8467259092371</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.902340876604271</v>
+        <v>6.018828844332591</v>
       </c>
       <c r="E12">
-        <v>16.85902583213932</v>
+        <v>9.805605210579625</v>
       </c>
       <c r="F12">
-        <v>21.07103768073378</v>
+        <v>17.03264961089331</v>
       </c>
       <c r="G12">
-        <v>23.17056528895258</v>
+        <v>20.01353665062459</v>
       </c>
       <c r="H12">
-        <v>12.77584090853747</v>
+        <v>7.538593228343175</v>
       </c>
       <c r="I12">
-        <v>24.16875646227642</v>
+        <v>13.52057770947498</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.52564905374923</v>
+        <v>17.75515343110478</v>
       </c>
       <c r="L12">
-        <v>8.837245884843476</v>
+        <v>8.755390209437415</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.7130141084932</v>
+        <v>12.32293036915449</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.09750606242204</v>
+        <v>15.80755382661772</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.897217496849652</v>
+        <v>6.006713933247367</v>
       </c>
       <c r="E13">
-        <v>16.86305933254049</v>
+        <v>9.814838908910133</v>
       </c>
       <c r="F13">
-        <v>21.07067545161456</v>
+        <v>17.00827133249931</v>
       </c>
       <c r="G13">
-        <v>23.17051211934396</v>
+        <v>19.98206205275309</v>
       </c>
       <c r="H13">
-        <v>12.77798578487747</v>
+        <v>7.540247489334585</v>
       </c>
       <c r="I13">
-        <v>24.17596545409918</v>
+        <v>13.54098895193261</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.50835489262538</v>
+        <v>17.71852684834482</v>
       </c>
       <c r="L13">
-        <v>8.833222031476105</v>
+        <v>8.733539522341436</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.71596732793238</v>
+        <v>12.31803767779246</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.05901921443359</v>
+        <v>15.67923079374814</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.880455505541535</v>
+        <v>5.967030748104825</v>
       </c>
       <c r="E14">
-        <v>16.87628595704212</v>
+        <v>9.845122392514128</v>
       </c>
       <c r="F14">
-        <v>21.06965178961019</v>
+        <v>16.92906388981799</v>
       </c>
       <c r="G14">
-        <v>23.17056928042464</v>
+        <v>19.87997090125146</v>
       </c>
       <c r="H14">
-        <v>12.78503465026956</v>
+        <v>7.545823447505266</v>
       </c>
       <c r="I14">
-        <v>24.1995900551753</v>
+        <v>13.60780941578887</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.45175313205709</v>
+        <v>17.59856500560335</v>
       </c>
       <c r="L14">
-        <v>8.820118102996357</v>
+        <v>8.661937832630407</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.72571197589727</v>
+        <v>12.30249417979007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.03542459459236</v>
+        <v>15.60018830771433</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.870147379116806</v>
+        <v>5.942590319566577</v>
       </c>
       <c r="E15">
-        <v>16.88444337671031</v>
+        <v>9.863802129875276</v>
       </c>
       <c r="F15">
-        <v>21.06914592966765</v>
+        <v>16.88077511488667</v>
       </c>
       <c r="G15">
-        <v>23.17078141948235</v>
+        <v>19.81786426826929</v>
       </c>
       <c r="H15">
-        <v>12.78939374381824</v>
+        <v>7.549376913485878</v>
       </c>
       <c r="I15">
-        <v>24.21414882919177</v>
+        <v>13.64893360232711</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.41692872793298</v>
+        <v>17.52469021809894</v>
       </c>
       <c r="L15">
-        <v>8.812106195351339</v>
+        <v>8.617816821247988</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.73176807558739</v>
+        <v>12.2932885730924</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.89993668581794</v>
+        <v>15.14048951280961</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.810457515152637</v>
+        <v>5.800499077381248</v>
       </c>
       <c r="E16">
-        <v>16.93204517421922</v>
+        <v>9.972816301082563</v>
       </c>
       <c r="F16">
-        <v>21.06810499143472</v>
+        <v>16.60759135202976</v>
       </c>
       <c r="G16">
-        <v>23.17471003807558</v>
+        <v>19.46855028178436</v>
       </c>
       <c r="H16">
-        <v>12.81500933532485</v>
+        <v>7.571811304962106</v>
       </c>
       <c r="I16">
-        <v>24.29892971593084</v>
+        <v>13.88753750032498</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.21503607366964</v>
+        <v>17.09532650475298</v>
       </c>
       <c r="L16">
-        <v>8.766426974840877</v>
+        <v>8.360938787266804</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.76780840454052</v>
+        <v>12.24528957619964</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81661048669787</v>
+        <v>14.85249185120655</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.773298252654123</v>
+        <v>5.711529146463965</v>
       </c>
       <c r="E17">
-        <v>16.96201099962094</v>
+        <v>10.0414201692102</v>
       </c>
       <c r="F17">
-        <v>21.06912495774588</v>
+        <v>16.44320821132354</v>
       </c>
       <c r="G17">
-        <v>23.1795383749388</v>
+        <v>19.26019027962053</v>
       </c>
       <c r="H17">
-        <v>12.83129055405513</v>
+        <v>7.587374051500303</v>
       </c>
       <c r="I17">
-        <v>24.35214646458568</v>
+        <v>14.03648761271552</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.08914386682014</v>
+        <v>16.8265953232075</v>
       </c>
       <c r="L17">
-        <v>8.738623249406386</v>
+        <v>8.19974044064903</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.79110770018502</v>
+        <v>12.22000093221337</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.76862203073703</v>
+        <v>14.68465456324047</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.751730367566717</v>
+        <v>5.65969935826364</v>
       </c>
       <c r="E18">
-        <v>16.9795275143423</v>
+        <v>10.08150307232548</v>
       </c>
       <c r="F18">
-        <v>21.07032129043094</v>
+        <v>16.34985643377424</v>
       </c>
       <c r="G18">
-        <v>23.18320301284857</v>
+        <v>19.1425455982994</v>
       </c>
       <c r="H18">
-        <v>12.84086337435262</v>
+        <v>7.596968094069041</v>
       </c>
       <c r="I18">
-        <v>24.38319924698665</v>
+        <v>14.12308861179899</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.01600157024621</v>
+        <v>16.67008624125509</v>
       </c>
       <c r="L18">
-        <v>8.722715860870521</v>
+        <v>8.105693059716234</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.80494534632952</v>
+        <v>12.20694879255782</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.75236487833944</v>
+        <v>14.62745310735496</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.74439478656943</v>
+        <v>5.642038463578158</v>
       </c>
       <c r="E19">
-        <v>16.98550659183445</v>
+        <v>10.09518059528343</v>
       </c>
       <c r="F19">
-        <v>21.07083106638559</v>
+        <v>16.31845647813571</v>
       </c>
       <c r="G19">
-        <v>23.18459609577817</v>
+        <v>19.10309231811736</v>
       </c>
       <c r="H19">
-        <v>12.84414033835218</v>
+        <v>7.600325118076746</v>
       </c>
       <c r="I19">
-        <v>24.39378948227862</v>
+        <v>14.15256824254455</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.99111266229765</v>
+        <v>16.61676316576627</v>
       </c>
       <c r="L19">
-        <v>8.717344805566968</v>
+        <v>8.073621501798717</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.80970543768412</v>
+        <v>12.2027826898792</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.8254874079589</v>
+        <v>14.88337650193058</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.777274181705728</v>
+        <v>5.721068236963086</v>
       </c>
       <c r="E20">
-        <v>16.95879201485484</v>
+        <v>10.03405237330332</v>
       </c>
       <c r="F20">
-        <v>21.06895328353783</v>
+        <v>16.46058360593591</v>
       </c>
       <c r="G20">
-        <v>23.17893250671318</v>
+        <v>19.28214341161742</v>
       </c>
       <c r="H20">
-        <v>12.82953583213296</v>
+        <v>7.585650429633349</v>
       </c>
       <c r="I20">
-        <v>24.34643551992101</v>
+        <v>14.02053512216052</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.10262149031282</v>
+        <v>16.85540361434968</v>
       </c>
       <c r="L20">
-        <v>8.741574341892273</v>
+        <v>8.217037906678517</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.78858225727988</v>
+        <v>12.2225376199688</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.07032805051274</v>
+        <v>15.71701430999073</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.885387458352667</v>
+        <v>5.978714471757681</v>
       </c>
       <c r="E21">
-        <v>16.87238936441236</v>
+        <v>9.836200191000916</v>
       </c>
       <c r="F21">
-        <v>21.06992721613431</v>
+        <v>16.9522816111596</v>
       </c>
       <c r="G21">
-        <v>23.17051557385649</v>
+        <v>19.9098686456662</v>
       </c>
       <c r="H21">
-        <v>12.78295558722417</v>
+        <v>7.544156780039487</v>
       </c>
       <c r="I21">
-        <v>24.19263259613923</v>
+        <v>13.58814192857898</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.46841065708303</v>
+        <v>17.63388303392874</v>
       </c>
       <c r="L21">
-        <v>8.82396401921025</v>
+        <v>8.683023752559786</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.72283155591743</v>
+        <v>12.30699380504978</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.22947723190309</v>
+        <v>16.2421385283913</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.954225045220657</v>
+        <v>6.141147349233407</v>
       </c>
       <c r="E22">
-        <v>16.81841544845947</v>
+        <v>9.712690816014071</v>
       </c>
       <c r="F22">
-        <v>21.07598729824263</v>
+        <v>17.28389376620062</v>
       </c>
       <c r="G22">
-        <v>23.17293945924281</v>
+        <v>20.33929311217355</v>
       </c>
       <c r="H22">
-        <v>12.75436826276427</v>
+        <v>7.523165352579275</v>
       </c>
       <c r="I22">
-        <v>24.09605472573297</v>
+        <v>13.31421501347552</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.70061679701032</v>
+        <v>18.12504144275945</v>
       </c>
       <c r="L22">
-        <v>8.878476171965717</v>
+        <v>8.975796561753963</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.68376160129391</v>
+        <v>12.37620803784399</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.14463103126432</v>
+        <v>15.96368096984268</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.91765568289436</v>
+        <v>6.055003099556965</v>
       </c>
       <c r="E23">
-        <v>16.84699435270325</v>
+        <v>9.778066815200734</v>
       </c>
       <c r="F23">
-        <v>21.07225709709345</v>
+        <v>17.10598682783097</v>
       </c>
       <c r="G23">
-        <v>23.17091991660043</v>
+        <v>20.10836837231302</v>
       </c>
       <c r="H23">
-        <v>12.7694560362568</v>
+        <v>7.533788262203737</v>
       </c>
       <c r="I23">
-        <v>24.14724009070945</v>
+        <v>13.45960019696388</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.57732683105911</v>
+        <v>17.86452702955693</v>
       </c>
       <c r="L23">
-        <v>8.849325354238873</v>
+        <v>8.820611640416608</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.70425624284621</v>
+        <v>12.33795077716965</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.82147440712022</v>
+        <v>14.86942059919371</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.775477300277095</v>
+        <v>5.716757730264695</v>
       </c>
       <c r="E24">
-        <v>16.9602464183342</v>
+        <v>10.03738135789705</v>
       </c>
       <c r="F24">
-        <v>21.06902899750129</v>
+        <v>16.4527245902668</v>
       </c>
       <c r="G24">
-        <v>23.17920365160408</v>
+        <v>19.27221171743304</v>
       </c>
       <c r="H24">
-        <v>12.83032847990064</v>
+        <v>7.586427668817679</v>
       </c>
       <c r="I24">
-        <v>24.34901601196747</v>
+        <v>14.02774423335162</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.0965306362919</v>
+        <v>16.84238564870948</v>
       </c>
       <c r="L24">
-        <v>8.740239911096936</v>
+        <v>8.209221997407873</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.78972263160792</v>
+        <v>12.22138616102924</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.47075109863154</v>
+        <v>13.60567495840861</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.614724217584811</v>
+        <v>5.326901819364551</v>
       </c>
       <c r="E25">
-        <v>17.09315344093987</v>
+        <v>10.34083809724503</v>
       </c>
       <c r="F25">
-        <v>21.08885068997491</v>
+        <v>15.79405144946235</v>
       </c>
       <c r="G25">
-        <v>23.22204193512896</v>
+        <v>18.45445289977327</v>
       </c>
       <c r="H25">
-        <v>12.90395246255083</v>
+        <v>7.667565094072046</v>
       </c>
       <c r="I25">
-        <v>24.5836437745693</v>
+        <v>14.67596340301533</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.55016042413747</v>
+        <v>15.66591728817804</v>
       </c>
       <c r="L25">
-        <v>8.625856735479392</v>
+        <v>7.498868558882312</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.89859085035387</v>
+        <v>12.15226243528971</v>
       </c>
     </row>
   </sheetData>
